--- a/natmiOut/OldD4/LR-pairs_lrc2p/Slit3-Robo1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Slit3-Robo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.82635291723197</v>
+        <v>2.252684333333333</v>
       </c>
       <c r="H2">
-        <v>1.82635291723197</v>
+        <v>6.758053</v>
       </c>
       <c r="I2">
-        <v>0.01947095794522012</v>
+        <v>0.0222218921225531</v>
       </c>
       <c r="J2">
-        <v>0.01947095794522012</v>
+        <v>0.02372332054363385</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.105838170621644</v>
+        <v>0.1438866666666667</v>
       </c>
       <c r="N2">
-        <v>0.105838170621644</v>
+        <v>0.43166</v>
       </c>
       <c r="O2">
-        <v>0.004458236745275686</v>
+        <v>0.005528090411415381</v>
       </c>
       <c r="P2">
-        <v>0.004458236745275686</v>
+        <v>0.005816871971504955</v>
       </c>
       <c r="Q2">
-        <v>0.1932978516693345</v>
+        <v>0.3241312397755556</v>
       </c>
       <c r="R2">
-        <v>0.1932978516693345</v>
+        <v>2.91718115798</v>
       </c>
       <c r="S2">
-        <v>8.68061401770979E-05</v>
+        <v>0.0001228446287661928</v>
       </c>
       <c r="T2">
-        <v>8.68061401770979E-05</v>
+        <v>0.0001379955183412914</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.82635291723197</v>
+        <v>2.252684333333333</v>
       </c>
       <c r="H3">
-        <v>1.82635291723197</v>
+        <v>6.758053</v>
       </c>
       <c r="I3">
-        <v>0.01947095794522012</v>
+        <v>0.0222218921225531</v>
       </c>
       <c r="J3">
-        <v>0.01947095794522012</v>
+        <v>0.02372332054363385</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.3633245173465</v>
+        <v>21.99231</v>
       </c>
       <c r="N3">
-        <v>20.3633245173465</v>
+        <v>65.97693</v>
       </c>
       <c r="O3">
-        <v>0.8577672978093019</v>
+        <v>0.8449391514331273</v>
       </c>
       <c r="P3">
-        <v>0.8577672978093019</v>
+        <v>0.889077873518381</v>
       </c>
       <c r="Q3">
-        <v>37.19061713679707</v>
+        <v>49.54173219081</v>
       </c>
       <c r="R3">
-        <v>37.19061713679707</v>
+        <v>445.87558971729</v>
       </c>
       <c r="S3">
-        <v>0.01670155098243002</v>
+        <v>0.01877614667326851</v>
       </c>
       <c r="T3">
-        <v>0.01670155098243002</v>
+        <v>0.0210918793817289</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.82635291723197</v>
+        <v>2.252684333333333</v>
       </c>
       <c r="H4">
-        <v>1.82635291723197</v>
+        <v>6.758053</v>
       </c>
       <c r="I4">
-        <v>0.01947095794522012</v>
+        <v>0.0222218921225531</v>
       </c>
       <c r="J4">
-        <v>0.01947095794522012</v>
+        <v>0.02372332054363385</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.27075438435845</v>
+        <v>0.015519</v>
       </c>
       <c r="N4">
-        <v>3.27075438435845</v>
+        <v>0.046557</v>
       </c>
       <c r="O4">
-        <v>0.1377744654454222</v>
+        <v>0.0005962361703291152</v>
       </c>
       <c r="P4">
-        <v>0.1377744654454222</v>
+        <v>0.0006273829133516105</v>
       </c>
       <c r="Q4">
-        <v>5.973551811422311</v>
+        <v>0.034959408169</v>
       </c>
       <c r="R4">
-        <v>5.973551811422311</v>
+        <v>0.314634673521</v>
       </c>
       <c r="S4">
-        <v>0.002682600822612999</v>
+        <v>1.324949585661779E-05</v>
       </c>
       <c r="T4">
-        <v>0.002682600822612999</v>
+        <v>1.488360595703911E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>73.1950051260558</v>
+        <v>2.252684333333333</v>
       </c>
       <c r="H5">
-        <v>73.1950051260558</v>
+        <v>6.758053</v>
       </c>
       <c r="I5">
-        <v>0.7803403455941084</v>
+        <v>0.0222218921225531</v>
       </c>
       <c r="J5">
-        <v>0.7803403455941084</v>
+        <v>0.02372332054363385</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.105838170621644</v>
+        <v>3.876561</v>
       </c>
       <c r="N5">
-        <v>0.105838170621644</v>
+        <v>7.753121999999999</v>
       </c>
       <c r="O5">
-        <v>0.004458236745275686</v>
+        <v>0.1489365219851282</v>
       </c>
       <c r="P5">
-        <v>0.004458236745275686</v>
+        <v>0.1044778715967623</v>
       </c>
       <c r="Q5">
-        <v>7.746825441183601</v>
+        <v>8.732668231910999</v>
       </c>
       <c r="R5">
-        <v>7.746825441183601</v>
+        <v>52.396009391466</v>
       </c>
       <c r="S5">
-        <v>0.003478942002548782</v>
+        <v>0.003309651324661778</v>
       </c>
       <c r="T5">
-        <v>0.003478942002548782</v>
+        <v>0.002478562037606611</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>73.1950051260558</v>
+        <v>79.77368433333334</v>
       </c>
       <c r="H6">
-        <v>73.1950051260558</v>
+        <v>239.321053</v>
       </c>
       <c r="I6">
-        <v>0.7803403455941084</v>
+        <v>0.7869376908440662</v>
       </c>
       <c r="J6">
-        <v>0.7803403455941084</v>
+        <v>0.8401073583114818</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.3633245173465</v>
+        <v>0.1438866666666667</v>
       </c>
       <c r="N6">
-        <v>20.3633245173465</v>
+        <v>0.43166</v>
       </c>
       <c r="O6">
-        <v>0.8577672978093019</v>
+        <v>0.005528090411415381</v>
       </c>
       <c r="P6">
-        <v>0.8577672978093019</v>
+        <v>0.005816871971504955</v>
       </c>
       <c r="Q6">
-        <v>1490.493642430715</v>
+        <v>11.47836952644222</v>
       </c>
       <c r="R6">
-        <v>1490.493642430715</v>
+        <v>103.30532573798</v>
       </c>
       <c r="S6">
-        <v>0.6693504296118351</v>
+        <v>0.004350262703136444</v>
       </c>
       <c r="T6">
-        <v>0.6693504296118351</v>
+        <v>0.004886796945617129</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>73.1950051260558</v>
+        <v>79.77368433333334</v>
       </c>
       <c r="H7">
-        <v>73.1950051260558</v>
+        <v>239.321053</v>
       </c>
       <c r="I7">
-        <v>0.7803403455941084</v>
+        <v>0.7869376908440662</v>
       </c>
       <c r="J7">
-        <v>0.7803403455941084</v>
+        <v>0.8401073583114818</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.27075438435845</v>
+        <v>21.99231</v>
       </c>
       <c r="N7">
-        <v>3.27075438435845</v>
+        <v>65.97693</v>
       </c>
       <c r="O7">
-        <v>0.1377744654454222</v>
+        <v>0.8449391514331273</v>
       </c>
       <c r="P7">
-        <v>0.1377744654454222</v>
+        <v>0.889077873518381</v>
       </c>
       <c r="Q7">
-        <v>239.4028839291863</v>
+        <v>1754.40759570081</v>
       </c>
       <c r="R7">
-        <v>239.4028839291863</v>
+        <v>15789.66836130729</v>
       </c>
       <c r="S7">
-        <v>0.1075109739797243</v>
+        <v>0.6649144647325299</v>
       </c>
       <c r="T7">
-        <v>0.1075109739797243</v>
+        <v>0.7469208636547168</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.7774638929651</v>
+        <v>79.77368433333334</v>
       </c>
       <c r="H8">
-        <v>18.7774638929651</v>
+        <v>239.321053</v>
       </c>
       <c r="I8">
-        <v>0.2001886964606714</v>
+        <v>0.7869376908440662</v>
       </c>
       <c r="J8">
-        <v>0.2001886964606714</v>
+        <v>0.8401073583114818</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.105838170621644</v>
+        <v>0.015519</v>
       </c>
       <c r="N8">
-        <v>0.105838170621644</v>
+        <v>0.046557</v>
       </c>
       <c r="O8">
-        <v>0.004458236745275686</v>
+        <v>0.0005962361703291152</v>
       </c>
       <c r="P8">
-        <v>0.004458236745275686</v>
+        <v>0.0006273829133516105</v>
       </c>
       <c r="Q8">
-        <v>1.9873724273454</v>
+        <v>1.238007807169</v>
       </c>
       <c r="R8">
-        <v>1.9873724273454</v>
+        <v>11.142070264521</v>
       </c>
       <c r="S8">
-        <v>0.000892488602549806</v>
+        <v>0.0004692007150765032</v>
       </c>
       <c r="T8">
-        <v>0.000892488602549806</v>
+        <v>0.0005270690019855827</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.7774638929651</v>
+        <v>79.77368433333334</v>
       </c>
       <c r="H9">
-        <v>18.7774638929651</v>
+        <v>239.321053</v>
       </c>
       <c r="I9">
-        <v>0.2001886964606714</v>
+        <v>0.7869376908440662</v>
       </c>
       <c r="J9">
-        <v>0.2001886964606714</v>
+        <v>0.8401073583114818</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.3633245173465</v>
+        <v>3.876561</v>
       </c>
       <c r="N9">
-        <v>20.3633245173465</v>
+        <v>7.753121999999999</v>
       </c>
       <c r="O9">
-        <v>0.8577672978093019</v>
+        <v>0.1489365219851282</v>
       </c>
       <c r="P9">
-        <v>0.8577672978093019</v>
+        <v>0.1044778715967623</v>
       </c>
       <c r="Q9">
-        <v>382.3715908652048</v>
+        <v>309.247553512911</v>
       </c>
       <c r="R9">
-        <v>382.3715908652048</v>
+        <v>1855.485321077466</v>
       </c>
       <c r="S9">
-        <v>0.1717153172150367</v>
+        <v>0.1172037626933233</v>
       </c>
       <c r="T9">
-        <v>0.1717153172150367</v>
+        <v>0.08777262870916219</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.08885966666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.266579</v>
+      </c>
+      <c r="I10">
+        <v>0.0008765675232405079</v>
+      </c>
+      <c r="J10">
+        <v>0.0009357930556628316</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.1438866666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.43166</v>
+      </c>
+      <c r="O10">
+        <v>0.005528090411415381</v>
+      </c>
+      <c r="P10">
+        <v>0.005816871971504955</v>
+      </c>
+      <c r="Q10">
+        <v>0.01278572123777778</v>
+      </c>
+      <c r="R10">
+        <v>0.11507149114</v>
+      </c>
+      <c r="S10">
+        <v>4.84574452018398E-06</v>
+      </c>
+      <c r="T10">
+        <v>5.443388396614102E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.08885966666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.266579</v>
+      </c>
+      <c r="I11">
+        <v>0.0008765675232405079</v>
+      </c>
+      <c r="J11">
+        <v>0.0009357930556628316</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>21.99231</v>
+      </c>
+      <c r="N11">
+        <v>65.97693</v>
+      </c>
+      <c r="O11">
+        <v>0.8449391514331273</v>
+      </c>
+      <c r="P11">
+        <v>0.889077873518381</v>
+      </c>
+      <c r="Q11">
+        <v>1.95422933583</v>
+      </c>
+      <c r="R11">
+        <v>17.58806402247</v>
+      </c>
+      <c r="S11">
+        <v>0.0007406462192606727</v>
+      </c>
+      <c r="T11">
+        <v>0.0008319928999819783</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.08885966666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.266579</v>
+      </c>
+      <c r="I12">
+        <v>0.0008765675232405079</v>
+      </c>
+      <c r="J12">
+        <v>0.0009357930556628316</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.015519</v>
+      </c>
+      <c r="N12">
+        <v>0.046557</v>
+      </c>
+      <c r="O12">
+        <v>0.0005962361703291152</v>
+      </c>
+      <c r="P12">
+        <v>0.0006273829133516105</v>
+      </c>
+      <c r="Q12">
+        <v>0.001379013167</v>
+      </c>
+      <c r="R12">
+        <v>0.012411118503</v>
+      </c>
+      <c r="S12">
+        <v>5.226412630917981E-07</v>
+      </c>
+      <c r="T12">
+        <v>5.871005735559531E-07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.08885966666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.266579</v>
+      </c>
+      <c r="I13">
+        <v>0.0008765675232405079</v>
+      </c>
+      <c r="J13">
+        <v>0.0009357930556628316</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.876561</v>
+      </c>
+      <c r="N13">
+        <v>7.753121999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.1489365219851282</v>
+      </c>
+      <c r="P13">
+        <v>0.1044778715967623</v>
+      </c>
+      <c r="Q13">
+        <v>0.344469918273</v>
+      </c>
+      <c r="R13">
+        <v>2.066819509638</v>
+      </c>
+      <c r="S13">
+        <v>0.0001305529181965593</v>
+      </c>
+      <c r="T13">
+        <v>9.776966671068319E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.009776999999999999</v>
+      </c>
+      <c r="H14">
+        <v>0.029331</v>
+      </c>
+      <c r="I14">
+        <v>9.644646436578776E-05</v>
+      </c>
+      <c r="J14">
+        <v>0.0001029628969860586</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.1438866666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.43166</v>
+      </c>
+      <c r="O14">
+        <v>0.005528090411415381</v>
+      </c>
+      <c r="P14">
+        <v>0.005816871971504955</v>
+      </c>
+      <c r="Q14">
+        <v>0.00140677994</v>
+      </c>
+      <c r="R14">
+        <v>0.01266101946</v>
+      </c>
+      <c r="S14">
+        <v>5.331647748754265E-07</v>
+      </c>
+      <c r="T14">
+        <v>5.989219895831563E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.009776999999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.029331</v>
+      </c>
+      <c r="I15">
+        <v>9.644646436578776E-05</v>
+      </c>
+      <c r="J15">
+        <v>0.0001029628969860586</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>21.99231</v>
+      </c>
+      <c r="N15">
+        <v>65.97693</v>
+      </c>
+      <c r="O15">
+        <v>0.8449391514331273</v>
+      </c>
+      <c r="P15">
+        <v>0.889077873518381</v>
+      </c>
+      <c r="Q15">
+        <v>0.21501881487</v>
+      </c>
+      <c r="R15">
+        <v>1.93516933383</v>
+      </c>
+      <c r="S15">
+        <v>8.149139375995406E-05</v>
+      </c>
+      <c r="T15">
+        <v>9.15420335036571E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.009776999999999999</v>
+      </c>
+      <c r="H16">
+        <v>0.029331</v>
+      </c>
+      <c r="I16">
+        <v>9.644646436578776E-05</v>
+      </c>
+      <c r="J16">
+        <v>0.0001029628969860586</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.015519</v>
+      </c>
+      <c r="N16">
+        <v>0.046557</v>
+      </c>
+      <c r="O16">
+        <v>0.0005962361703291152</v>
+      </c>
+      <c r="P16">
+        <v>0.0006273829133516105</v>
+      </c>
+      <c r="Q16">
+        <v>0.000151729263</v>
+      </c>
+      <c r="R16">
+        <v>0.001365563367</v>
+      </c>
+      <c r="S16">
+        <v>5.750487055524077E-08</v>
+      </c>
+      <c r="T16">
+        <v>6.459716227823519E-08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.009776999999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.029331</v>
+      </c>
+      <c r="I17">
+        <v>9.644646436578776E-05</v>
+      </c>
+      <c r="J17">
+        <v>0.0001029628969860586</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.876561</v>
+      </c>
+      <c r="N17">
+        <v>7.753121999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.1489365219851282</v>
+      </c>
+      <c r="P17">
+        <v>0.1044778715967623</v>
+      </c>
+      <c r="Q17">
+        <v>0.037901136897</v>
+      </c>
+      <c r="R17">
+        <v>0.227406821382</v>
+      </c>
+      <c r="S17">
+        <v>1.436440096040303E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.07573443305401E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>19.2472955</v>
+      </c>
+      <c r="H18">
+        <v>38.494591</v>
+      </c>
+      <c r="I18">
+        <v>0.1898674030457745</v>
+      </c>
+      <c r="J18">
+        <v>0.1351305651922355</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.1438866666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.43166</v>
+      </c>
+      <c r="O18">
+        <v>0.005528090411415381</v>
+      </c>
+      <c r="P18">
+        <v>0.005816871971504955</v>
+      </c>
+      <c r="Q18">
+        <v>2.769429191843334</v>
+      </c>
+      <c r="R18">
+        <v>16.61657515106</v>
+      </c>
+      <c r="S18">
+        <v>0.001049604170217685</v>
+      </c>
+      <c r="T18">
+        <v>0.0007860371971603375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>19.2472955</v>
+      </c>
+      <c r="H19">
+        <v>38.494591</v>
+      </c>
+      <c r="I19">
+        <v>0.1898674030457745</v>
+      </c>
+      <c r="J19">
+        <v>0.1351305651922355</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>21.99231</v>
+      </c>
+      <c r="N19">
+        <v>65.97693</v>
+      </c>
+      <c r="O19">
+        <v>0.8449391514331273</v>
+      </c>
+      <c r="P19">
+        <v>0.889077873518381</v>
+      </c>
+      <c r="Q19">
+        <v>423.292489297605</v>
+      </c>
+      <c r="R19">
+        <v>2539.75493578563</v>
+      </c>
+      <c r="S19">
+        <v>0.1604264024143083</v>
+      </c>
+      <c r="T19">
+        <v>0.1201415955484497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>18.7774638929651</v>
-      </c>
-      <c r="H10">
-        <v>18.7774638929651</v>
-      </c>
-      <c r="I10">
-        <v>0.2001886964606714</v>
-      </c>
-      <c r="J10">
-        <v>0.2001886964606714</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3.27075438435845</v>
-      </c>
-      <c r="N10">
-        <v>3.27075438435845</v>
-      </c>
-      <c r="O10">
-        <v>0.1377744654454222</v>
-      </c>
-      <c r="P10">
-        <v>0.1377744654454222</v>
-      </c>
-      <c r="Q10">
-        <v>61.41647235504809</v>
-      </c>
-      <c r="R10">
-        <v>61.41647235504809</v>
-      </c>
-      <c r="S10">
-        <v>0.0275808906430849</v>
-      </c>
-      <c r="T10">
-        <v>0.0275808906430849</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>19.2472955</v>
+      </c>
+      <c r="H20">
+        <v>38.494591</v>
+      </c>
+      <c r="I20">
+        <v>0.1898674030457745</v>
+      </c>
+      <c r="J20">
+        <v>0.1351305651922355</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.015519</v>
+      </c>
+      <c r="N20">
+        <v>0.046557</v>
+      </c>
+      <c r="O20">
+        <v>0.0005962361703291152</v>
+      </c>
+      <c r="P20">
+        <v>0.0006273829133516105</v>
+      </c>
+      <c r="Q20">
+        <v>0.2986987788645</v>
+      </c>
+      <c r="R20">
+        <v>1.792192673187</v>
+      </c>
+      <c r="S20">
+        <v>0.0001132058132623472</v>
+      </c>
+      <c r="T20">
+        <v>8.477860767315441E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>19.2472955</v>
+      </c>
+      <c r="H21">
+        <v>38.494591</v>
+      </c>
+      <c r="I21">
+        <v>0.1898674030457745</v>
+      </c>
+      <c r="J21">
+        <v>0.1351305651922355</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.876561</v>
+      </c>
+      <c r="N21">
+        <v>7.753121999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.1489365219851282</v>
+      </c>
+      <c r="P21">
+        <v>0.1044778715967623</v>
+      </c>
+      <c r="Q21">
+        <v>74.61331509077549</v>
+      </c>
+      <c r="R21">
+        <v>298.4532603631019</v>
+      </c>
+      <c r="S21">
+        <v>0.02827819064798619</v>
+      </c>
+      <c r="T21">
+        <v>0.0141181538389523</v>
       </c>
     </row>
   </sheetData>
